--- a/InvoiceProcessing-RPA/bot/invoiceReaders/Abakus.xlsx
+++ b/InvoiceProcessing-RPA/bot/invoiceReaders/Abakus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\invoiceProcessingPAM_DM_RPA\InvoiceApproval\InvoiceProcessing-RPA\bot\invoiceReaders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A324BF-46A8-441F-8BEB-B6734C4B27E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F44DA6-D51D-449E-B8D0-77CB9BD071D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29670" yWindow="3390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Abakus</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>12/05/2023</t>
-  </si>
-  <si>
-    <t>4773.89</t>
   </si>
   <si>
     <t xml:space="preserve">Product Code
@@ -94,151 +91,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">VODKA/GRE1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey Goose Vodka I 40% I 70cl‘
-</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>29.90</t>
-  </si>
-  <si>
-    <t>1,076.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRBONNV003
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;G Woodford Reserve I 43.2% I 70cl
-</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>27.66</t>
-  </si>
-  <si>
-    <t>497.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUM/BAC1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacardi Carta Blanca I 37.5% I 70c|
-</t>
-  </si>
-  <si>
-    <t>14.75</t>
-  </si>
-  <si>
-    <t>531.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERMOIMAR1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martini Bianco I 15% I 75cl
-</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8.31</t>
-  </si>
-  <si>
-    <t>99.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLEND/JOH1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnnie Walker Black Label 12yo I 40% I 70cl
-</t>
-  </si>
-  <si>
-    <t>22.15</t>
-  </si>
-  <si>
-    <t>797.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIQ/COI1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cointreau I 40% I 706i
-</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>17.66</t>
-  </si>
-  <si>
-    <t>105.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LlQ/BRI/CAS1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Briottet Maison Edmond Creme de Cassis I 20% I 70cl I
-</t>
-  </si>
-  <si>
-    <t>16.18</t>
-  </si>
-  <si>
-    <t>97.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIQIBRIICHA
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Briottet Maison Edmond Creme de Chataigne I 18% I 70clI
-</t>
-  </si>
-  <si>
-    <t>19.13</t>
-  </si>
-  <si>
-    <t>114.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUM/KRA1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kraken Black Spiced I 40% I 70cl
-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>19.95</t>
-  </si>
-  <si>
-    <t>39.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 X CHARTREUSE GREEN 7OCL - NO ETA
-</t>
   </si>
 </sst>
 </file>
@@ -635,7 +487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -677,9 +531,7 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -694,254 +546,121 @@
     </row>
     <row r="5" ht="23.25" customHeight="1" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="e">
-        <f>VALUE(E6)=(C6*D6)</f>
-        <v>#VALUE!</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="e">
-        <f ref="F7:F16" t="shared" si="0">VALUE(E7)=(C7*D7)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2"/>

--- a/InvoiceProcessing-RPA/bot/invoiceReaders/Abakus.xlsx
+++ b/InvoiceProcessing-RPA/bot/invoiceReaders/Abakus.xlsx
@@ -53,7 +53,7 @@
     <t>30503203</t>
   </si>
   <si>
-    <t>12/05/2023</t>
+    <t>01/05/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Product Code
